--- a/data/pca/factorExposure/factorExposure_2019-01-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-01-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.1089035299155499</v>
+        <v>0.06771169264752007</v>
       </c>
       <c r="C2">
-        <v>0.0005813560491273828</v>
+        <v>-0.03481944181463608</v>
       </c>
       <c r="D2">
-        <v>0.06726132151426044</v>
+        <v>-0.01630052751607956</v>
       </c>
       <c r="E2">
-        <v>0.02415578998571509</v>
+        <v>-0.04357995681241061</v>
       </c>
       <c r="F2">
-        <v>-0.1358269235174766</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.1349075111559751</v>
+      </c>
+      <c r="G2">
+        <v>0.06674176912880395</v>
+      </c>
+      <c r="H2">
+        <v>0.04929028725037983</v>
+      </c>
+      <c r="I2">
+        <v>-0.1071325227890269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.2175679143851991</v>
+        <v>0.1598961574127634</v>
       </c>
       <c r="C3">
-        <v>-0.1514432376559501</v>
+        <v>-0.1108362371640664</v>
       </c>
       <c r="D3">
-        <v>0.03459065911873279</v>
+        <v>0.00997420700522475</v>
       </c>
       <c r="E3">
-        <v>0.01207752763662531</v>
+        <v>-0.004586988185908174</v>
       </c>
       <c r="F3">
-        <v>-0.3408411843435205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.3756086950049357</v>
+      </c>
+      <c r="G3">
+        <v>0.2852389007055584</v>
+      </c>
+      <c r="H3">
+        <v>0.05667519060875865</v>
+      </c>
+      <c r="I3">
+        <v>-0.364643392547451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.09857361737800208</v>
+        <v>0.0721996250894789</v>
       </c>
       <c r="C4">
-        <v>-0.03717246847509147</v>
+        <v>-0.04723480669884213</v>
       </c>
       <c r="D4">
-        <v>0.04166162179646839</v>
+        <v>0.01751590410229403</v>
       </c>
       <c r="E4">
-        <v>-0.02226260375382223</v>
+        <v>-0.04130148981259124</v>
       </c>
       <c r="F4">
-        <v>-0.07378618909849728</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.07840204788679395</v>
+      </c>
+      <c r="G4">
+        <v>0.03065837966753628</v>
+      </c>
+      <c r="H4">
+        <v>0.04498629650495992</v>
+      </c>
+      <c r="I4">
+        <v>-0.05682559085622447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.02097075925527866</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.009532542813586575</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.005184724544613302</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.005785459420745844</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.008607880072474566</v>
+      </c>
+      <c r="G6">
+        <v>-0.01432231403811489</v>
+      </c>
+      <c r="H6">
+        <v>-0.01925241102271976</v>
+      </c>
+      <c r="I6">
+        <v>0.005588450819256115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.04714977592601344</v>
+        <v>0.03473426351040263</v>
       </c>
       <c r="C7">
-        <v>-0.01504385501831491</v>
+        <v>-0.01851140065860749</v>
       </c>
       <c r="D7">
-        <v>0.04105561969697876</v>
+        <v>0.03713457114144108</v>
       </c>
       <c r="E7">
-        <v>0.007630668118166884</v>
+        <v>-0.03004241176827915</v>
       </c>
       <c r="F7">
-        <v>-0.05964733587409281</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.04787149607839892</v>
+      </c>
+      <c r="G7">
+        <v>0.05063363551558351</v>
+      </c>
+      <c r="H7">
+        <v>-0.004512943382215692</v>
+      </c>
+      <c r="I7">
+        <v>-0.03541042771281327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.05343957068708044</v>
+        <v>0.02793144940244163</v>
       </c>
       <c r="C8">
-        <v>-0.05698589986717056</v>
+        <v>-0.05323347740029311</v>
       </c>
       <c r="D8">
-        <v>0.02557824134822359</v>
+        <v>0.01467702116485045</v>
       </c>
       <c r="E8">
-        <v>-0.02171034714970338</v>
+        <v>-0.02355052940894021</v>
       </c>
       <c r="F8">
-        <v>-0.07089487185074465</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.07002571924908746</v>
+      </c>
+      <c r="G8">
+        <v>0.04766169983847551</v>
+      </c>
+      <c r="H8">
+        <v>0.03635599126246007</v>
+      </c>
+      <c r="I8">
+        <v>-0.06518023594399397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.08331316125683305</v>
+        <v>0.06185451006557963</v>
       </c>
       <c r="C9">
-        <v>-0.0283540629350344</v>
+        <v>-0.04307535798957189</v>
       </c>
       <c r="D9">
-        <v>0.04853591122217554</v>
+        <v>0.02090770350513347</v>
       </c>
       <c r="E9">
-        <v>-0.03870539649417536</v>
+        <v>-0.03813058290263887</v>
       </c>
       <c r="F9">
-        <v>-0.06176112549776485</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.07873061623851071</v>
+      </c>
+      <c r="G9">
+        <v>0.02512128726381438</v>
+      </c>
+      <c r="H9">
+        <v>0.04224007921437579</v>
+      </c>
+      <c r="I9">
+        <v>-0.03077394641165228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.02285122569729001</v>
+        <v>0.03519859843841031</v>
       </c>
       <c r="C10">
-        <v>0.1571452829125944</v>
+        <v>0.1603533863450405</v>
       </c>
       <c r="D10">
-        <v>-0.0593317276978454</v>
+        <v>-0.01539865690545732</v>
       </c>
       <c r="E10">
-        <v>0.04077101960100769</v>
+        <v>0.04124262308127518</v>
       </c>
       <c r="F10">
-        <v>-0.06534471086704854</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.06799785382513449</v>
+      </c>
+      <c r="G10">
+        <v>0.03007673601033515</v>
+      </c>
+      <c r="H10">
+        <v>0.03859893731836186</v>
+      </c>
+      <c r="I10">
+        <v>-0.05266716058116319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.06072124754102827</v>
+        <v>0.04959130136163331</v>
       </c>
       <c r="C11">
-        <v>-0.01679974281765001</v>
+        <v>-0.03336115795686442</v>
       </c>
       <c r="D11">
-        <v>0.006841664134099761</v>
+        <v>-0.004325677009890553</v>
       </c>
       <c r="E11">
-        <v>0.01073826121281875</v>
+        <v>-0.01198267076145386</v>
       </c>
       <c r="F11">
-        <v>-0.04054420247630746</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.03694635594780925</v>
+      </c>
+      <c r="G11">
+        <v>0.0002850175661583249</v>
+      </c>
+      <c r="H11">
+        <v>0.01424394174347338</v>
+      </c>
+      <c r="I11">
+        <v>-0.02705290626035695</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.04963348599552183</v>
+        <v>0.04442495128225817</v>
       </c>
       <c r="C12">
-        <v>-0.0211279430338801</v>
+        <v>-0.02983406441092873</v>
       </c>
       <c r="D12">
-        <v>0.005208637981441615</v>
+        <v>0.006750679005052863</v>
       </c>
       <c r="E12">
-        <v>-0.007566396129822226</v>
+        <v>-0.01255467841829427</v>
       </c>
       <c r="F12">
-        <v>-0.0289566282418638</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.0137819847082278</v>
+      </c>
+      <c r="G12">
+        <v>0.00230997345271124</v>
+      </c>
+      <c r="H12">
+        <v>0.003410054539710097</v>
+      </c>
+      <c r="I12">
+        <v>-0.01563477620215102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.06240239371167988</v>
+        <v>0.04351047067429942</v>
       </c>
       <c r="C13">
-        <v>-0.02832385778951229</v>
+        <v>-0.02858945466472005</v>
       </c>
       <c r="D13">
-        <v>0.02447077769930216</v>
+        <v>-0.01386663238748894</v>
       </c>
       <c r="E13">
-        <v>0.03363329119766459</v>
+        <v>-0.01167149686917948</v>
       </c>
       <c r="F13">
-        <v>-0.1076683914575779</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.1030042566859663</v>
+      </c>
+      <c r="G13">
+        <v>0.03847989150086367</v>
+      </c>
+      <c r="H13">
+        <v>0.02559724907019056</v>
+      </c>
+      <c r="I13">
+        <v>-0.06037455763950442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.03574381098180303</v>
+        <v>0.02673212869462253</v>
       </c>
       <c r="C14">
-        <v>-0.02135657938135823</v>
+        <v>-0.02238758929441023</v>
       </c>
       <c r="D14">
-        <v>0.03733246679340478</v>
+        <v>0.007133672090536601</v>
       </c>
       <c r="E14">
-        <v>-0.002560425967099461</v>
+        <v>-0.03016635857571399</v>
       </c>
       <c r="F14">
-        <v>-0.0239337912353805</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03424146749176263</v>
+      </c>
+      <c r="G14">
+        <v>0.05538540289271995</v>
+      </c>
+      <c r="H14">
+        <v>0.0127889793580812</v>
+      </c>
+      <c r="I14">
+        <v>-0.01741269503145826</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.05221634535511897</v>
+        <v>0.04285495285343444</v>
       </c>
       <c r="C16">
-        <v>-0.02399067778322252</v>
+        <v>-0.03533506374760836</v>
       </c>
       <c r="D16">
-        <v>0.003759681461168087</v>
+        <v>0.001141467058171677</v>
       </c>
       <c r="E16">
-        <v>0.004985020538122467</v>
+        <v>-0.008909834729958727</v>
       </c>
       <c r="F16">
-        <v>-0.03393623761526743</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.03396401864415254</v>
+      </c>
+      <c r="G16">
+        <v>0.005002053451739907</v>
+      </c>
+      <c r="H16">
+        <v>0.003855713798157578</v>
+      </c>
+      <c r="I16">
+        <v>-0.02763281630681908</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.06692023693599534</v>
+        <v>0.0520309711640133</v>
       </c>
       <c r="C19">
-        <v>-0.04944836520369376</v>
+        <v>-0.04686932759419526</v>
       </c>
       <c r="D19">
-        <v>0.02278480632294515</v>
+        <v>0.0005405931257252329</v>
       </c>
       <c r="E19">
-        <v>0.002197461414576095</v>
+        <v>-0.02562243684132985</v>
       </c>
       <c r="F19">
-        <v>-0.08531276521382432</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.09202290550596154</v>
+      </c>
+      <c r="G19">
+        <v>0.06362909498549593</v>
+      </c>
+      <c r="H19">
+        <v>0.008909965103986747</v>
+      </c>
+      <c r="I19">
+        <v>-0.0683525882867617</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.04005843559776512</v>
+        <v>0.01904772631853853</v>
       </c>
       <c r="C20">
-        <v>-0.03422844133036627</v>
+        <v>-0.03024375259710117</v>
       </c>
       <c r="D20">
-        <v>0.03431335788393465</v>
+        <v>0.007334037500880537</v>
       </c>
       <c r="E20">
-        <v>-0.01309990899946012</v>
+        <v>-0.0226491940559421</v>
       </c>
       <c r="F20">
-        <v>-0.06364424237578981</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.06274377145413439</v>
+      </c>
+      <c r="G20">
+        <v>0.05863387092826111</v>
+      </c>
+      <c r="H20">
+        <v>0.006424706852641043</v>
+      </c>
+      <c r="I20">
+        <v>-0.0753761076603966</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.03661859739056521</v>
+        <v>0.03328741708482819</v>
       </c>
       <c r="C21">
-        <v>-0.03940676427933702</v>
+        <v>-0.03190758420560105</v>
       </c>
       <c r="D21">
-        <v>0.01624936966334687</v>
+        <v>0.0135273653008262</v>
       </c>
       <c r="E21">
-        <v>0.01170544261243574</v>
+        <v>-0.008842726046726923</v>
       </c>
       <c r="F21">
-        <v>-0.1011495836913084</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.07904560132916653</v>
+      </c>
+      <c r="G21">
+        <v>0.02230939567639012</v>
+      </c>
+      <c r="H21">
+        <v>0.04576830555062391</v>
+      </c>
+      <c r="I21">
+        <v>-0.001973435424544874</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.05316124512597885</v>
+        <v>0.04183269776012172</v>
       </c>
       <c r="C24">
-        <v>-0.02235763890005088</v>
+        <v>-0.03121678767514894</v>
       </c>
       <c r="D24">
-        <v>0.01041232931264277</v>
+        <v>0.001763073381498631</v>
       </c>
       <c r="E24">
-        <v>0.0002519174644916163</v>
+        <v>-0.01270087399669761</v>
       </c>
       <c r="F24">
-        <v>-0.04241394884611061</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.036931703229142</v>
+      </c>
+      <c r="G24">
+        <v>-0.0004510089775111795</v>
+      </c>
+      <c r="H24">
+        <v>0.006148959543925753</v>
+      </c>
+      <c r="I24">
+        <v>-0.02921296220699531</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.05410356638160699</v>
+        <v>0.04822061222252154</v>
       </c>
       <c r="C25">
-        <v>-0.01684127534793152</v>
+        <v>-0.02751506524926316</v>
       </c>
       <c r="D25">
-        <v>0.006292087490687196</v>
+        <v>0.0005732998367900632</v>
       </c>
       <c r="E25">
-        <v>0.002119987941608082</v>
+        <v>-0.01063274632291491</v>
       </c>
       <c r="F25">
-        <v>-0.03970674127458439</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.04269472202185499</v>
+      </c>
+      <c r="G25">
+        <v>0.000189765050592382</v>
+      </c>
+      <c r="H25">
+        <v>0.0124728654689413</v>
+      </c>
+      <c r="I25">
+        <v>-0.01885627708131284</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.02559607950396552</v>
+        <v>0.01752410155494029</v>
       </c>
       <c r="C26">
-        <v>-0.03417236355667074</v>
+        <v>-0.03022807901731999</v>
       </c>
       <c r="D26">
-        <v>0.02653190988840181</v>
+        <v>-0.00283009431410765</v>
       </c>
       <c r="E26">
-        <v>0.01811527469539462</v>
+        <v>-0.005713607120710919</v>
       </c>
       <c r="F26">
-        <v>-0.02915121470796779</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.040900171872565</v>
+      </c>
+      <c r="G26">
+        <v>0.03347891922940248</v>
+      </c>
+      <c r="H26">
+        <v>0.01208380040804986</v>
+      </c>
+      <c r="I26">
+        <v>-0.02077940247548073</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>-0.1214218944666904</v>
+        <v>0.07280153459322941</v>
       </c>
       <c r="C27">
-        <v>-0.01916653272979016</v>
+        <v>-0.02648877749229023</v>
       </c>
       <c r="D27">
-        <v>0.03557496604418027</v>
+        <v>0.006219851221210351</v>
       </c>
       <c r="E27">
-        <v>-0.02086438168267643</v>
+        <v>-0.03636738934529757</v>
       </c>
       <c r="F27">
-        <v>-0.08267919315043447</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.06421867660613817</v>
+      </c>
+      <c r="G27">
+        <v>0.01937694248856881</v>
+      </c>
+      <c r="H27">
+        <v>0.02562336204612754</v>
+      </c>
+      <c r="I27">
+        <v>-0.03895611953802837</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.02244279165015196</v>
+        <v>0.05201808902983054</v>
       </c>
       <c r="C28">
-        <v>0.2347758717022736</v>
+        <v>0.2440758102302011</v>
       </c>
       <c r="D28">
-        <v>-0.09809217432551495</v>
+        <v>-0.01489644784667456</v>
       </c>
       <c r="E28">
-        <v>0.03880062919196066</v>
+        <v>0.06000518361263948</v>
       </c>
       <c r="F28">
-        <v>-0.04654056083091972</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.0597005984159471</v>
+      </c>
+      <c r="G28">
+        <v>0.03832861358008617</v>
+      </c>
+      <c r="H28">
+        <v>0.0427533600802111</v>
+      </c>
+      <c r="I28">
+        <v>-0.07599537470109133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.02861592000556436</v>
+        <v>0.02334128250336421</v>
       </c>
       <c r="C29">
-        <v>-0.01920948938072584</v>
+        <v>-0.01926807463922453</v>
       </c>
       <c r="D29">
-        <v>0.03691873338534533</v>
+        <v>0.01030092356184526</v>
       </c>
       <c r="E29">
-        <v>-0.01454625968254061</v>
+        <v>-0.03074438007374406</v>
       </c>
       <c r="F29">
-        <v>-0.02702073837690389</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03054612470740889</v>
+      </c>
+      <c r="G29">
+        <v>0.05524291445657552</v>
+      </c>
+      <c r="H29">
+        <v>0.01747606578276759</v>
+      </c>
+      <c r="I29">
+        <v>-0.001913064890797093</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.1164950033812491</v>
+        <v>0.09003425875279489</v>
       </c>
       <c r="C30">
-        <v>-0.02245243936195766</v>
+        <v>-0.05239527810008815</v>
       </c>
       <c r="D30">
-        <v>0.03507998293497674</v>
+        <v>-0.03505916524135342</v>
       </c>
       <c r="E30">
-        <v>0.0148125808622464</v>
+        <v>-0.03624969569040535</v>
       </c>
       <c r="F30">
-        <v>-0.1069875043466895</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.1039161960686669</v>
+      </c>
+      <c r="G30">
+        <v>0.01595504746410086</v>
+      </c>
+      <c r="H30">
+        <v>-0.0103867417026335</v>
+      </c>
+      <c r="I30">
+        <v>-0.02492376650128996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.06899829238447144</v>
+        <v>0.0604984822824166</v>
       </c>
       <c r="C31">
-        <v>-0.01708120105760329</v>
+        <v>-0.02249675148764791</v>
       </c>
       <c r="D31">
-        <v>0.03228535847457051</v>
+        <v>-0.00885200036370087</v>
       </c>
       <c r="E31">
-        <v>0.02989219158756235</v>
+        <v>-0.02441778642499768</v>
       </c>
       <c r="F31">
-        <v>0.03747712461627196</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.005153961416461898</v>
+      </c>
+      <c r="G31">
+        <v>0.04692790741784875</v>
+      </c>
+      <c r="H31">
+        <v>0.03199473804214901</v>
+      </c>
+      <c r="I31">
+        <v>-0.01243192413173494</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.07261725722902672</v>
+        <v>0.04254005323533479</v>
       </c>
       <c r="C32">
-        <v>-0.03691345528413333</v>
+        <v>-0.04636693230566203</v>
       </c>
       <c r="D32">
-        <v>0.03384990116811316</v>
+        <v>0.01757985586974745</v>
       </c>
       <c r="E32">
-        <v>-0.008774150422383994</v>
+        <v>-0.03789372979172193</v>
       </c>
       <c r="F32">
-        <v>-0.09241131586912016</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.0813762987979693</v>
+      </c>
+      <c r="G32">
+        <v>0.04256420093071878</v>
+      </c>
+      <c r="H32">
+        <v>0.02307782539345495</v>
+      </c>
+      <c r="I32">
+        <v>-0.05203568769533683</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.07253114314802649</v>
+        <v>0.05641400169146425</v>
       </c>
       <c r="C33">
-        <v>-0.05864313252188957</v>
+        <v>-0.05864626599061749</v>
       </c>
       <c r="D33">
-        <v>0.03629370864946569</v>
+        <v>-0.01598410777417952</v>
       </c>
       <c r="E33">
-        <v>0.01764846056603801</v>
+        <v>-0.01931071883735968</v>
       </c>
       <c r="F33">
-        <v>-0.06555349506410479</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.07107299089262045</v>
+      </c>
+      <c r="G33">
+        <v>0.04081276351811359</v>
+      </c>
+      <c r="H33">
+        <v>0.03462293636307485</v>
+      </c>
+      <c r="I33">
+        <v>-0.03064011063715537</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.05234068352237124</v>
+        <v>0.04373352808341068</v>
       </c>
       <c r="C34">
-        <v>-0.0212958616526757</v>
+        <v>-0.03551526515804768</v>
       </c>
       <c r="D34">
-        <v>0.0144911127477133</v>
+        <v>0.00651906046493631</v>
       </c>
       <c r="E34">
-        <v>-0.0005125317110951541</v>
+        <v>-0.02000375589872369</v>
       </c>
       <c r="F34">
-        <v>-0.02769541252728718</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.03210954988694515</v>
+      </c>
+      <c r="G34">
+        <v>0.00583389804919474</v>
+      </c>
+      <c r="H34">
+        <v>0.007763036398146067</v>
+      </c>
+      <c r="I34">
+        <v>-0.02419263222167071</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.01761933276908453</v>
+        <v>0.0159144555664194</v>
       </c>
       <c r="C36">
-        <v>-0.003141428880630529</v>
+        <v>-0.005669079725219875</v>
       </c>
       <c r="D36">
-        <v>0.01295647787726195</v>
+        <v>0.005035486731744585</v>
       </c>
       <c r="E36">
-        <v>-0.004944676143830391</v>
+        <v>-0.01075255807550798</v>
       </c>
       <c r="F36">
-        <v>-0.0166042281771106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.0235030057355096</v>
+      </c>
+      <c r="G36">
+        <v>0.03939377623148076</v>
+      </c>
+      <c r="H36">
+        <v>0.01862771731612428</v>
+      </c>
+      <c r="I36">
+        <v>0.008526577550417027</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.04386547861613035</v>
+        <v>0.03489934277487956</v>
       </c>
       <c r="C38">
-        <v>-0.01491694553926576</v>
+        <v>-0.01662673074962856</v>
       </c>
       <c r="D38">
-        <v>0.02299209001982256</v>
+        <v>0.004766759388628575</v>
       </c>
       <c r="E38">
-        <v>-0.01870456813953748</v>
+        <v>-0.01288226455987779</v>
       </c>
       <c r="F38">
-        <v>-0.02475775770196237</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.04823151556398049</v>
+      </c>
+      <c r="G38">
+        <v>0.02582934912601503</v>
+      </c>
+      <c r="H38">
+        <v>0.02474201503496851</v>
+      </c>
+      <c r="I38">
+        <v>0.01141438057133929</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.07253899414328011</v>
+        <v>0.05454761464834208</v>
       </c>
       <c r="C39">
-        <v>-0.02288723073673729</v>
+        <v>-0.04821899627194649</v>
       </c>
       <c r="D39">
-        <v>0.02341456309704152</v>
+        <v>-0.00273265684591343</v>
       </c>
       <c r="E39">
-        <v>0.01553246309567878</v>
+        <v>-0.02207888414675128</v>
       </c>
       <c r="F39">
-        <v>-0.03445031946025782</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.05392439212643365</v>
+      </c>
+      <c r="G39">
+        <v>-0.002801565681658643</v>
+      </c>
+      <c r="H39">
+        <v>0.02121657517654799</v>
+      </c>
+      <c r="I39">
+        <v>-0.00629529169740822</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.07755610619967969</v>
+        <v>0.05575440626735998</v>
       </c>
       <c r="C40">
-        <v>-0.02286850537790459</v>
+        <v>-0.04331512400523987</v>
       </c>
       <c r="D40">
-        <v>0.05293263126221365</v>
+        <v>-0.01884821421885533</v>
       </c>
       <c r="E40">
-        <v>0.0399629831816232</v>
+        <v>-0.0276902948468934</v>
       </c>
       <c r="F40">
-        <v>-0.1092472042170453</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.09439636501288146</v>
+      </c>
+      <c r="G40">
+        <v>0.0381856586621225</v>
+      </c>
+      <c r="H40">
+        <v>0.02475070545338637</v>
+      </c>
+      <c r="I40">
+        <v>-0.1067245398315046</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.003492038931261458</v>
+        <v>0.003609165447960885</v>
       </c>
       <c r="C41">
-        <v>-0.02544059801322361</v>
+        <v>-0.01131781368505699</v>
       </c>
       <c r="D41">
-        <v>0.03113834484629364</v>
+        <v>0.0005009108605031239</v>
       </c>
       <c r="E41">
-        <v>-0.006865296242945494</v>
+        <v>-0.01073383456554217</v>
       </c>
       <c r="F41">
-        <v>0.002070080956537608</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.01011487181761045</v>
+      </c>
+      <c r="G41">
+        <v>0.04611677035494307</v>
+      </c>
+      <c r="H41">
+        <v>0.03638879736384735</v>
+      </c>
+      <c r="I41">
+        <v>-0.01422094849632981</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>-0.1785349906923027</v>
+        <v>0.2300836493610558</v>
       </c>
       <c r="C42">
-        <v>-0.4485081305942237</v>
+        <v>-0.2858536880169495</v>
       </c>
       <c r="D42">
-        <v>-0.8001838026855154</v>
+        <v>-0.04265394715105065</v>
       </c>
       <c r="E42">
-        <v>0.25515806734421</v>
+        <v>0.8984242728003798</v>
       </c>
       <c r="F42">
-        <v>0.1187468670855343</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.1629275343382879</v>
+      </c>
+      <c r="G42">
+        <v>0.007614286203944106</v>
+      </c>
+      <c r="H42">
+        <v>-0.01194863693878171</v>
+      </c>
+      <c r="I42">
+        <v>-0.05319567505530503</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.006503088170554268</v>
+        <v>0.008282818537736587</v>
       </c>
       <c r="C43">
-        <v>-0.0274972902744916</v>
+        <v>-0.01495406078142826</v>
       </c>
       <c r="D43">
-        <v>0.03267273118869159</v>
+        <v>-0.001953275695886796</v>
       </c>
       <c r="E43">
-        <v>-0.001419346148840972</v>
+        <v>-0.01064806780008314</v>
       </c>
       <c r="F43">
-        <v>-0.02485181415395141</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.02394535931962197</v>
+      </c>
+      <c r="G43">
+        <v>0.0343301911745005</v>
+      </c>
+      <c r="H43">
+        <v>0.02060607032371347</v>
+      </c>
+      <c r="I43">
+        <v>-0.02393231755966287</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.04601517949182284</v>
+        <v>0.03044461722473814</v>
       </c>
       <c r="C44">
-        <v>-0.04753814056284269</v>
+        <v>-0.04350747367772718</v>
       </c>
       <c r="D44">
-        <v>0.03815582679686795</v>
+        <v>0.004002468461108698</v>
       </c>
       <c r="E44">
-        <v>0.01220888662221928</v>
+        <v>-0.01778052241983088</v>
       </c>
       <c r="F44">
-        <v>-0.1172256125804258</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.1156281640899104</v>
+      </c>
+      <c r="G44">
+        <v>0.09758051000248985</v>
+      </c>
+      <c r="H44">
+        <v>0.05072313282914934</v>
+      </c>
+      <c r="I44">
+        <v>-0.05528786563317291</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.03299493203837241</v>
+        <v>0.02626392846654817</v>
       </c>
       <c r="C46">
-        <v>-0.02511472595250236</v>
+        <v>-0.03538800981035348</v>
       </c>
       <c r="D46">
-        <v>0.03911449568486512</v>
+        <v>-0.001651909278926439</v>
       </c>
       <c r="E46">
-        <v>5.336961202843923e-05</v>
+        <v>-0.03447010723259869</v>
       </c>
       <c r="F46">
-        <v>-0.02038311491384691</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.04271689459576948</v>
+      </c>
+      <c r="G46">
+        <v>0.05838275081115112</v>
+      </c>
+      <c r="H46">
+        <v>0.01448689228053462</v>
+      </c>
+      <c r="I46">
+        <v>-0.007812266608292379</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.09607238126215679</v>
+        <v>0.08718690423507004</v>
       </c>
       <c r="C47">
-        <v>-0.008850822738473476</v>
+        <v>-0.01851996847925549</v>
       </c>
       <c r="D47">
-        <v>0.03034149477637738</v>
+        <v>-0.003824706338290527</v>
       </c>
       <c r="E47">
-        <v>-0.004344858576018146</v>
+        <v>-0.02903835492956365</v>
       </c>
       <c r="F47">
-        <v>0.02793521512134322</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.01717556957829831</v>
+      </c>
+      <c r="G47">
+        <v>0.061565444248045</v>
+      </c>
+      <c r="H47">
+        <v>0.02685835009395533</v>
+      </c>
+      <c r="I47">
+        <v>-0.03388682226998251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.02133748941318691</v>
+        <v>0.02060575770293724</v>
       </c>
       <c r="C48">
-        <v>-0.02272148234089249</v>
+        <v>-0.01813543336242902</v>
       </c>
       <c r="D48">
-        <v>0.02560615750586905</v>
+        <v>0.001768424098957814</v>
       </c>
       <c r="E48">
-        <v>0.001317974067406277</v>
+        <v>-0.01573814932236503</v>
       </c>
       <c r="F48">
-        <v>-0.02202634989055931</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.02523054662786522</v>
+      </c>
+      <c r="G48">
+        <v>0.02714334915086778</v>
+      </c>
+      <c r="H48">
+        <v>0.0161458754344993</v>
+      </c>
+      <c r="I48">
+        <v>-0.01012025817410788</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.09313019603949657</v>
+        <v>0.08829026206718037</v>
       </c>
       <c r="C50">
-        <v>-0.03221837685337878</v>
+        <v>-0.03865113370975076</v>
       </c>
       <c r="D50">
-        <v>0.03324649643945748</v>
+        <v>0.01232071845624023</v>
       </c>
       <c r="E50">
-        <v>0.005611575841615042</v>
+        <v>-0.02841277245796981</v>
       </c>
       <c r="F50">
-        <v>0.02967397534114066</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.01001210908428206</v>
+      </c>
+      <c r="G50">
+        <v>0.03466119122879761</v>
+      </c>
+      <c r="H50">
+        <v>-0.009544972099989031</v>
+      </c>
+      <c r="I50">
+        <v>0.006049157711067689</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.05945471290049158</v>
+        <v>0.03957218919182458</v>
       </c>
       <c r="C51">
-        <v>0.01399051346838607</v>
+        <v>0.00301675040895377</v>
       </c>
       <c r="D51">
-        <v>0.01816731069623521</v>
+        <v>-0.01105417512259555</v>
       </c>
       <c r="E51">
-        <v>0.03785956115187396</v>
+        <v>-0.0116013017806703</v>
       </c>
       <c r="F51">
-        <v>-0.06561641153299871</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.09182847758988746</v>
+      </c>
+      <c r="G51">
+        <v>0.06960662494810436</v>
+      </c>
+      <c r="H51">
+        <v>0.05105186932559776</v>
+      </c>
+      <c r="I51">
+        <v>-0.02890183447925399</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1361212682768985</v>
+        <v>0.1247630440455953</v>
       </c>
       <c r="C53">
-        <v>-0.01258676129315065</v>
+        <v>-0.03630275600281391</v>
       </c>
       <c r="D53">
-        <v>0.05906242367267577</v>
+        <v>-0.003455524420704902</v>
       </c>
       <c r="E53">
-        <v>0.001085860108842609</v>
+        <v>-0.05872270490103709</v>
       </c>
       <c r="F53">
-        <v>0.06132856616763231</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.0493153138807456</v>
+      </c>
+      <c r="G53">
+        <v>0.009357709706987623</v>
+      </c>
+      <c r="H53">
+        <v>0.03038420370409644</v>
+      </c>
+      <c r="I53">
+        <v>-0.04231595917747723</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.02971044533546438</v>
+        <v>0.02723816267931962</v>
       </c>
       <c r="C54">
-        <v>-0.005606521198907043</v>
+        <v>-0.005141939268787053</v>
       </c>
       <c r="D54">
-        <v>0.03443696258543471</v>
+        <v>0.005381293799729053</v>
       </c>
       <c r="E54">
-        <v>-0.00708039584535815</v>
+        <v>-0.02860643800615091</v>
       </c>
       <c r="F54">
-        <v>-0.02580490173849363</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.02948601885589872</v>
+      </c>
+      <c r="G54">
+        <v>0.05677633819537215</v>
+      </c>
+      <c r="H54">
+        <v>0.0327435265582089</v>
+      </c>
+      <c r="I54">
+        <v>-0.003029461060067479</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1053544005313463</v>
+        <v>0.09729193799519141</v>
       </c>
       <c r="C55">
-        <v>0.005372012478078232</v>
+        <v>-0.02943849343797552</v>
       </c>
       <c r="D55">
-        <v>0.03011537096736809</v>
+        <v>0.01407544818618949</v>
       </c>
       <c r="E55">
-        <v>-0.0421593360036137</v>
+        <v>-0.03869916234966515</v>
       </c>
       <c r="F55">
-        <v>0.01780503653644071</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.03610218333112214</v>
+      </c>
+      <c r="G55">
+        <v>0.01908297369675636</v>
+      </c>
+      <c r="H55">
+        <v>-0.009707465741326714</v>
+      </c>
+      <c r="I55">
+        <v>-0.02157799593326414</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1704984127227133</v>
+        <v>0.1640475022932116</v>
       </c>
       <c r="C56">
-        <v>0.04044078341168424</v>
+        <v>-0.01589187891078583</v>
       </c>
       <c r="D56">
-        <v>0.08119761857630438</v>
+        <v>0.0006512702619623375</v>
       </c>
       <c r="E56">
-        <v>-0.03644126799333528</v>
+        <v>-0.08920750233169018</v>
       </c>
       <c r="F56">
-        <v>0.1041786324729666</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.09392729564196772</v>
+      </c>
+      <c r="G56">
+        <v>-0.04258286216496828</v>
+      </c>
+      <c r="H56">
+        <v>-0.005758660574215421</v>
+      </c>
+      <c r="I56">
+        <v>-0.04671335677539722</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>-0.0861351346934162</v>
+        <v>0.06750856882803347</v>
       </c>
       <c r="C57">
-        <v>-0.02470466013740145</v>
+        <v>-0.03197679912052991</v>
       </c>
       <c r="D57">
-        <v>0.02935712189686096</v>
+        <v>-0.01846969944343543</v>
       </c>
       <c r="E57">
-        <v>0.03144674677941247</v>
+        <v>-0.006311044851081766</v>
       </c>
       <c r="F57">
-        <v>-0.03972966931084792</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.06649397229558011</v>
+      </c>
+      <c r="G57">
+        <v>0.02345575395213169</v>
+      </c>
+      <c r="H57">
+        <v>0.0162692500587076</v>
+      </c>
+      <c r="I57">
+        <v>-0.0242635442970488</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.1981249072334911</v>
+        <v>0.20943767432881</v>
       </c>
       <c r="C58">
-        <v>-0.04037733207656887</v>
+        <v>-0.1111753638745434</v>
       </c>
       <c r="D58">
-        <v>0.03649450555272667</v>
+        <v>-0.08588213104968634</v>
       </c>
       <c r="E58">
-        <v>0.0588626258127439</v>
+        <v>-0.001160000638866657</v>
       </c>
       <c r="F58">
-        <v>-0.1183495934982153</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.2669934395262329</v>
+      </c>
+      <c r="G58">
+        <v>0.363633644674445</v>
+      </c>
+      <c r="H58">
+        <v>-0.3411620814813528</v>
+      </c>
+      <c r="I58">
+        <v>0.6942571238665227</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.02191469481328683</v>
+        <v>0.05008990821849788</v>
       </c>
       <c r="C59">
-        <v>0.1925064726850308</v>
+        <v>0.1993039315573456</v>
       </c>
       <c r="D59">
-        <v>-0.05149481686091416</v>
+        <v>-0.02679788083128551</v>
       </c>
       <c r="E59">
-        <v>0.02631582627771544</v>
+        <v>0.02329045815457439</v>
       </c>
       <c r="F59">
-        <v>-0.0498077923328093</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.07041309790386097</v>
+      </c>
+      <c r="G59">
+        <v>-0.003346966867619532</v>
+      </c>
+      <c r="H59">
+        <v>0.0172896095944852</v>
+      </c>
+      <c r="I59">
+        <v>-0.01740626028522426</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1866084381256458</v>
+        <v>0.19122221365508</v>
       </c>
       <c r="C60">
-        <v>0.08135984109923847</v>
+        <v>0.05018737841226552</v>
       </c>
       <c r="D60">
-        <v>0.0007723353135960229</v>
+        <v>-0.05290689177802947</v>
       </c>
       <c r="E60">
-        <v>0.08758797386638995</v>
+        <v>-0.007937479560981316</v>
       </c>
       <c r="F60">
-        <v>-0.1730824856608193</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.2022584848988385</v>
+      </c>
+      <c r="G60">
+        <v>-0.3146656139138545</v>
+      </c>
+      <c r="H60">
+        <v>0.02355106720954186</v>
+      </c>
+      <c r="I60">
+        <v>0.02807243548332614</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.04390097921696681</v>
+        <v>0.03868466974105175</v>
       </c>
       <c r="C61">
-        <v>-0.01466202502609922</v>
+        <v>-0.0312712595051841</v>
       </c>
       <c r="D61">
-        <v>0.00978804664625689</v>
+        <v>0.002718675388432489</v>
       </c>
       <c r="E61">
-        <v>-0.001140066904021535</v>
+        <v>-0.009837852550669737</v>
       </c>
       <c r="F61">
-        <v>-0.03296149187336362</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.03699184027179023</v>
+      </c>
+      <c r="G61">
+        <v>-0.005182487401145087</v>
+      </c>
+      <c r="H61">
+        <v>0.01397446016187189</v>
+      </c>
+      <c r="I61">
+        <v>0.007262160217308826</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.04305507317425269</v>
+        <v>0.03100728684073681</v>
       </c>
       <c r="C63">
-        <v>-0.01577363343672714</v>
+        <v>-0.0241205147357301</v>
       </c>
       <c r="D63">
-        <v>0.02398816738854482</v>
+        <v>-0.0006184020940582186</v>
       </c>
       <c r="E63">
-        <v>0.009057836500385268</v>
+        <v>-0.01712844567159753</v>
       </c>
       <c r="F63">
-        <v>-0.03137425705529784</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.02657512218655401</v>
+      </c>
+      <c r="G63">
+        <v>0.05070926760571202</v>
+      </c>
+      <c r="H63">
+        <v>0.003004872632820979</v>
+      </c>
+      <c r="I63">
+        <v>-0.03400561732015753</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.06590674698135791</v>
+        <v>0.05675067719046513</v>
       </c>
       <c r="C64">
-        <v>-0.02520820431363845</v>
+        <v>-0.0318969271397806</v>
       </c>
       <c r="D64">
-        <v>0.02074149670212809</v>
+        <v>0.01203082773898207</v>
       </c>
       <c r="E64">
-        <v>-0.02554154731399249</v>
+        <v>-0.02122382415751283</v>
       </c>
       <c r="F64">
-        <v>-0.03427930265291838</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.03921348132685462</v>
+      </c>
+      <c r="G64">
+        <v>0.02807015171278079</v>
+      </c>
+      <c r="H64">
+        <v>0.05401416790813043</v>
+      </c>
+      <c r="I64">
+        <v>-0.03662690593332186</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.02299087862519019</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.009691483905505104</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.005738675133576648</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.006417184594736837</v>
       </c>
       <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.00515685155195842</v>
+      </c>
+      <c r="G65">
+        <v>-0.01867265957841274</v>
+      </c>
+      <c r="H65">
+        <v>-0.01775793439161266</v>
+      </c>
+      <c r="I65">
+        <v>0.004878513498192819</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.08078048449942282</v>
+        <v>0.06734001998750096</v>
       </c>
       <c r="C66">
-        <v>-0.03169999924128835</v>
+        <v>-0.05635785698353431</v>
       </c>
       <c r="D66">
-        <v>0.0458726979935596</v>
+        <v>-0.009649792323335737</v>
       </c>
       <c r="E66">
-        <v>0.004601705650774973</v>
+        <v>-0.05072072961593468</v>
       </c>
       <c r="F66">
-        <v>-0.07322196960160997</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.06629061991825486</v>
+      </c>
+      <c r="G66">
+        <v>-0.007179660265053904</v>
+      </c>
+      <c r="H66">
+        <v>0.009310994354259564</v>
+      </c>
+      <c r="I66">
+        <v>-0.04011366139181663</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.05569279641987002</v>
+        <v>0.04763689048316286</v>
       </c>
       <c r="C67">
-        <v>0.008892624998317422</v>
+        <v>0.001709964533546506</v>
       </c>
       <c r="D67">
-        <v>0.006427167205558105</v>
+        <v>-0.001611482384670867</v>
       </c>
       <c r="E67">
-        <v>-0.005988851773435958</v>
+        <v>-0.008926331385545194</v>
       </c>
       <c r="F67">
-        <v>-0.01909042722992881</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.03744192681892806</v>
+      </c>
+      <c r="G67">
+        <v>0.008097402291857127</v>
+      </c>
+      <c r="H67">
+        <v>0.03726702419009204</v>
+      </c>
+      <c r="I67">
+        <v>0.02518222290240944</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.03821317961495498</v>
+        <v>0.06147590424483889</v>
       </c>
       <c r="C68">
-        <v>0.227919592482617</v>
+        <v>0.2341095949427131</v>
       </c>
       <c r="D68">
-        <v>-0.08632333007020956</v>
+        <v>-0.02804048301328317</v>
       </c>
       <c r="E68">
-        <v>0.03506388970614231</v>
+        <v>0.04470709625925216</v>
       </c>
       <c r="F68">
-        <v>-0.04111507123565276</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.05172956008089041</v>
+      </c>
+      <c r="G68">
+        <v>0.01908616078090301</v>
+      </c>
+      <c r="H68">
+        <v>-0.002944772064451101</v>
+      </c>
+      <c r="I68">
+        <v>-0.03907575108009412</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.07900924797699921</v>
+        <v>0.07309798491816381</v>
       </c>
       <c r="C69">
-        <v>-0.004585832382672603</v>
+        <v>-0.01863259830413526</v>
       </c>
       <c r="D69">
-        <v>0.03025367641261528</v>
+        <v>-0.005171554954387865</v>
       </c>
       <c r="E69">
-        <v>-0.0004935693806149519</v>
+        <v>-0.03138738176926711</v>
       </c>
       <c r="F69">
-        <v>0.01758262728621874</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.004956457207503852</v>
+      </c>
+      <c r="G69">
+        <v>0.03560945939989329</v>
+      </c>
+      <c r="H69">
+        <v>0.02088340981391663</v>
+      </c>
+      <c r="I69">
+        <v>-0.01635689486188783</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.03252059587822111</v>
+        <v>0.05652951082332681</v>
       </c>
       <c r="C71">
-        <v>0.2723714050882093</v>
+        <v>0.2541680860810153</v>
       </c>
       <c r="D71">
-        <v>-0.1017483591229342</v>
+        <v>-0.03294923308427507</v>
       </c>
       <c r="E71">
-        <v>0.07878642711078537</v>
+        <v>0.07204588304635066</v>
       </c>
       <c r="F71">
-        <v>-0.07403862019715178</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.07191787262061668</v>
+      </c>
+      <c r="G71">
+        <v>0.02715196562492131</v>
+      </c>
+      <c r="H71">
+        <v>0.02160270209203494</v>
+      </c>
+      <c r="I71">
+        <v>-0.0481536431998932</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1309044783892847</v>
+        <v>0.1249243787721145</v>
       </c>
       <c r="C72">
-        <v>0.02848007107807158</v>
+        <v>-0.02965337038013054</v>
       </c>
       <c r="D72">
-        <v>0.04373163869978681</v>
+        <v>-0.003293196299997022</v>
       </c>
       <c r="E72">
-        <v>0.003341210465124999</v>
+        <v>-0.06900161606447744</v>
       </c>
       <c r="F72">
-        <v>-0.06805759961981754</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.08111163161311948</v>
+      </c>
+      <c r="G72">
+        <v>-0.03592102690000203</v>
+      </c>
+      <c r="H72">
+        <v>-0.0350801770456878</v>
+      </c>
+      <c r="I72">
+        <v>0.1221639960219197</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2808693907824509</v>
+        <v>0.2722075610388398</v>
       </c>
       <c r="C73">
-        <v>0.1510922609248545</v>
+        <v>0.06997718568538748</v>
       </c>
       <c r="D73">
-        <v>-0.06541192851005358</v>
+        <v>-0.09158833281658137</v>
       </c>
       <c r="E73">
-        <v>0.1366272370356826</v>
+        <v>0.04275373483329033</v>
       </c>
       <c r="F73">
-        <v>-0.3303425420312564</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.3152441492401371</v>
+      </c>
+      <c r="G73">
+        <v>-0.527654562023998</v>
+      </c>
+      <c r="H73">
+        <v>-0.03448577711493565</v>
+      </c>
+      <c r="I73">
+        <v>0.1086294740591334</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1539823529625067</v>
+        <v>0.1493292138561873</v>
       </c>
       <c r="C74">
-        <v>-0.001418919969135528</v>
+        <v>-0.03072753034471686</v>
       </c>
       <c r="D74">
-        <v>0.04614306529006712</v>
+        <v>-0.01112507809750702</v>
       </c>
       <c r="E74">
-        <v>0.005615933203368405</v>
+        <v>-0.05063671132616039</v>
       </c>
       <c r="F74">
-        <v>0.04971543967740857</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.06506129994319645</v>
+      </c>
+      <c r="G74">
+        <v>-0.02787536438666137</v>
+      </c>
+      <c r="H74">
+        <v>-0.005444757795561346</v>
+      </c>
+      <c r="I74">
+        <v>-0.06843381876136696</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2293022295611436</v>
+        <v>0.2449107093747965</v>
       </c>
       <c r="C75">
-        <v>0.0272336244351045</v>
+        <v>-0.01894869255811667</v>
       </c>
       <c r="D75">
-        <v>0.08498392582639902</v>
+        <v>-0.02698498596931129</v>
       </c>
       <c r="E75">
-        <v>-0.002445814210513312</v>
+        <v>-0.1177503416402232</v>
       </c>
       <c r="F75">
-        <v>0.1485168467777042</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1475862167258037</v>
+      </c>
+      <c r="G75">
+        <v>-0.01631233343153738</v>
+      </c>
+      <c r="H75">
+        <v>0.0143969121314811</v>
+      </c>
+      <c r="I75">
+        <v>-0.0490395308006845</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.2482523000444574</v>
+        <v>0.2626305323304529</v>
       </c>
       <c r="C76">
-        <v>0.06297216428522004</v>
+        <v>-0.003060396901633032</v>
       </c>
       <c r="D76">
-        <v>0.0869678367418783</v>
+        <v>0.0130904706237505</v>
       </c>
       <c r="E76">
-        <v>-0.0705408963273063</v>
+        <v>-0.1393067291336741</v>
       </c>
       <c r="F76">
-        <v>0.1315392601050768</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1822470682063389</v>
+      </c>
+      <c r="G76">
+        <v>-0.04457826635687862</v>
+      </c>
+      <c r="H76">
+        <v>-0.05411269642353954</v>
+      </c>
+      <c r="I76">
+        <v>-0.05510299001550906</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.1366156895921692</v>
+        <v>0.1209359486820346</v>
       </c>
       <c r="C77">
-        <v>-0.06312120340299428</v>
+        <v>-0.07594220918527331</v>
       </c>
       <c r="D77">
-        <v>0.003816714214715917</v>
+        <v>-0.004190098311748201</v>
       </c>
       <c r="E77">
-        <v>0.0220208396773341</v>
+        <v>0.02949750877117686</v>
       </c>
       <c r="F77">
-        <v>-0.1596023672424832</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.1587845595460881</v>
+      </c>
+      <c r="G77">
+        <v>0.2114833548543658</v>
+      </c>
+      <c r="H77">
+        <v>-0.03246825330045846</v>
+      </c>
+      <c r="I77">
+        <v>-0.240927088608209</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.09869409221360688</v>
+        <v>0.07219359185495412</v>
       </c>
       <c r="C78">
-        <v>-0.07576161285934525</v>
+        <v>-0.07656762733084513</v>
       </c>
       <c r="D78">
-        <v>0.005264235110905698</v>
+        <v>0.008314304598742503</v>
       </c>
       <c r="E78">
-        <v>-0.003352773379779142</v>
+        <v>-0.01068627789757652</v>
       </c>
       <c r="F78">
-        <v>-0.04760109106495129</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.06603506919004409</v>
+      </c>
+      <c r="G78">
+        <v>0.01713392550976532</v>
+      </c>
+      <c r="H78">
+        <v>0.01716748040017947</v>
+      </c>
+      <c r="I78">
+        <v>-0.04610111130223323</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.09978515679776119</v>
+        <v>0.1345236538298094</v>
       </c>
       <c r="C80">
-        <v>0.00228628724803657</v>
+        <v>0.08481353579122128</v>
       </c>
       <c r="D80">
-        <v>-0.3055345307141765</v>
+        <v>0.9725012261424789</v>
       </c>
       <c r="E80">
-        <v>-0.9140862213627077</v>
+        <v>0.05962100411425278</v>
       </c>
       <c r="F80">
-        <v>-0.1363663235290878</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.04698202280289984</v>
+      </c>
+      <c r="G80">
+        <v>-0.03145189396738943</v>
+      </c>
+      <c r="H80">
+        <v>0.04043640721426371</v>
+      </c>
+      <c r="I80">
+        <v>0.09560443705842835</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1562332940183492</v>
+        <v>0.1798148112456058</v>
       </c>
       <c r="C81">
-        <v>0.01810246666693249</v>
+        <v>-0.00392075715594588</v>
       </c>
       <c r="D81">
-        <v>0.05265231568827215</v>
+        <v>-0.006379182036453074</v>
       </c>
       <c r="E81">
-        <v>-0.02230853814398962</v>
+        <v>-0.08477169070332287</v>
       </c>
       <c r="F81">
-        <v>0.176167972096936</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1579344580552333</v>
+      </c>
+      <c r="G81">
+        <v>0.002660746560929844</v>
+      </c>
+      <c r="H81">
+        <v>-0.02351260916176584</v>
+      </c>
+      <c r="I81">
+        <v>-0.01269690105556405</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.09662579379350111</v>
+        <v>0.06936015781873738</v>
       </c>
       <c r="C83">
-        <v>-0.08730908866066787</v>
+        <v>-0.05792393351481515</v>
       </c>
       <c r="D83">
-        <v>-0.03057208543759268</v>
+        <v>-0.01182274314407384</v>
       </c>
       <c r="E83">
-        <v>0.04416952121384352</v>
+        <v>0.03307198537337291</v>
       </c>
       <c r="F83">
-        <v>-0.007361777480090468</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.04530672239556083</v>
+      </c>
+      <c r="G83">
+        <v>0.05059311159937507</v>
+      </c>
+      <c r="H83">
+        <v>0.06362175647544045</v>
+      </c>
+      <c r="I83">
+        <v>-0.05243302695958298</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.2382621381726598</v>
+        <v>0.2488883415918374</v>
       </c>
       <c r="C85">
-        <v>-0.01226647123052317</v>
+        <v>-0.04829779875316523</v>
       </c>
       <c r="D85">
-        <v>0.07458484451454721</v>
+        <v>-0.003967861028374156</v>
       </c>
       <c r="E85">
-        <v>-0.06432442604227921</v>
+        <v>-0.1166574253389635</v>
       </c>
       <c r="F85">
-        <v>0.1532616664230826</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1854921711244999</v>
+      </c>
+      <c r="G85">
+        <v>0.006904961284310002</v>
+      </c>
+      <c r="H85">
+        <v>-0.02266349023389707</v>
+      </c>
+      <c r="I85">
+        <v>-0.07720862071772146</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.04114882111303761</v>
+        <v>0.02749032098315576</v>
       </c>
       <c r="C86">
-        <v>-0.04790912223948527</v>
+        <v>-0.05351983263469959</v>
       </c>
       <c r="D86">
-        <v>0.03129011362069976</v>
+        <v>0.0006676302315513096</v>
       </c>
       <c r="E86">
-        <v>0.01004444152135656</v>
+        <v>-0.018784157927425</v>
       </c>
       <c r="F86">
-        <v>-0.066387185150399</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.07913802524742601</v>
+      </c>
+      <c r="G86">
+        <v>0.06350008308247881</v>
+      </c>
+      <c r="H86">
+        <v>0.003478350968575691</v>
+      </c>
+      <c r="I86">
+        <v>-0.05373682234758368</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.01866422477907743</v>
+        <v>0.02874142981028714</v>
       </c>
       <c r="C87">
-        <v>0.03904671694666839</v>
+        <v>0.003792418182706614</v>
       </c>
       <c r="D87">
-        <v>-0.011732490200332</v>
+        <v>0.003930629434840622</v>
       </c>
       <c r="E87">
-        <v>0.01109684740071146</v>
+        <v>0.006005946928410059</v>
       </c>
       <c r="F87">
-        <v>-0.09452836196467009</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.09724817027702409</v>
+      </c>
+      <c r="G87">
+        <v>0.02493918989828225</v>
+      </c>
+      <c r="H87">
+        <v>-0.01644985336053008</v>
+      </c>
+      <c r="I87">
+        <v>-0.02765713673222703</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.02725398950525325</v>
+        <v>0.03248835161048078</v>
       </c>
       <c r="C88">
-        <v>-0.02367891692810445</v>
+        <v>-0.009480036004187609</v>
       </c>
       <c r="D88">
-        <v>0.01467202457361532</v>
+        <v>0.006849530150968894</v>
       </c>
       <c r="E88">
-        <v>-0.0242975587013879</v>
+        <v>-0.005370347116672316</v>
       </c>
       <c r="F88">
-        <v>0.01332600432628241</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01505528346036139</v>
+      </c>
+      <c r="G88">
+        <v>0.02810891751837865</v>
+      </c>
+      <c r="H88">
+        <v>0.04160305405714736</v>
+      </c>
+      <c r="I88">
+        <v>-0.006265823892872458</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.03776003973208021</v>
+        <v>0.08938708498804365</v>
       </c>
       <c r="C89">
-        <v>0.3467669420320321</v>
+        <v>0.3847354773669615</v>
       </c>
       <c r="D89">
-        <v>-0.1755003567540521</v>
+        <v>-0.06345690476212604</v>
       </c>
       <c r="E89">
-        <v>0.08335927458709558</v>
+        <v>0.08661156018742465</v>
       </c>
       <c r="F89">
-        <v>-0.000341110862899228</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.03840776369081048</v>
+      </c>
+      <c r="G89">
+        <v>0.1053048584058588</v>
+      </c>
+      <c r="H89">
+        <v>0.04523521607425546</v>
+      </c>
+      <c r="I89">
+        <v>-0.08883584199736705</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.02740553015472157</v>
+        <v>0.05730771054613992</v>
       </c>
       <c r="C90">
-        <v>0.2871349003070011</v>
+        <v>0.3241552071684922</v>
       </c>
       <c r="D90">
-        <v>-0.139429442128715</v>
+        <v>-0.03568261947883392</v>
       </c>
       <c r="E90">
-        <v>0.02573480573540875</v>
+        <v>0.07477369771745045</v>
       </c>
       <c r="F90">
-        <v>-0.0622441678223392</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.04028434727068207</v>
+      </c>
+      <c r="G90">
+        <v>0.054584728550176</v>
+      </c>
+      <c r="H90">
+        <v>0.01256341441848576</v>
+      </c>
+      <c r="I90">
+        <v>-0.06624409801524529</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.2698998877323075</v>
+        <v>0.2871052814031073</v>
       </c>
       <c r="C91">
-        <v>-0.01352867816653354</v>
+        <v>-0.04816390169084964</v>
       </c>
       <c r="D91">
-        <v>0.08659867846438628</v>
+        <v>-0.01329945074637729</v>
       </c>
       <c r="E91">
-        <v>-0.05828479646907494</v>
+        <v>-0.1096106563776762</v>
       </c>
       <c r="F91">
-        <v>0.2718547766388323</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.2728343145645986</v>
+      </c>
+      <c r="G91">
+        <v>-0.01195874152382191</v>
+      </c>
+      <c r="H91">
+        <v>-0.04507671449254286</v>
+      </c>
+      <c r="I91">
+        <v>-0.06260238855810915</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.05740819082429108</v>
+        <v>0.1236369861125964</v>
       </c>
       <c r="C92">
-        <v>0.3081565602131346</v>
+        <v>0.3739494629860515</v>
       </c>
       <c r="D92">
-        <v>-0.2092438444997818</v>
+        <v>-0.02329655606694056</v>
       </c>
       <c r="E92">
-        <v>-0.005084833409821072</v>
+        <v>0.09441355321795411</v>
       </c>
       <c r="F92">
-        <v>0.129529446313407</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1268764288540505</v>
+      </c>
+      <c r="G92">
+        <v>0.3356138892158086</v>
+      </c>
+      <c r="H92">
+        <v>-0.06123514556131993</v>
+      </c>
+      <c r="I92">
+        <v>0.1210007644814022</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.02338050831252617</v>
+        <v>0.07494352179891645</v>
       </c>
       <c r="C93">
-        <v>0.3444372685694195</v>
+        <v>0.3943311097724719</v>
       </c>
       <c r="D93">
-        <v>-0.1854250488624883</v>
+        <v>-0.05614401926890379</v>
       </c>
       <c r="E93">
-        <v>0.04331669702678338</v>
+        <v>0.1224476347002428</v>
       </c>
       <c r="F93">
-        <v>0.01162041732518334</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.006212204645949846</v>
+      </c>
+      <c r="G93">
+        <v>0.02979031624532633</v>
+      </c>
+      <c r="H93">
+        <v>0.05206298299638357</v>
+      </c>
+      <c r="I93">
+        <v>-0.003703585078864857</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2746473153277937</v>
+        <v>0.3088140193832229</v>
       </c>
       <c r="C94">
-        <v>0.1123530320426454</v>
+        <v>0.04313652743044365</v>
       </c>
       <c r="D94">
-        <v>0.02665817063574592</v>
+        <v>-0.04248201363741123</v>
       </c>
       <c r="E94">
-        <v>-0.04186296376641459</v>
+        <v>-0.1226679204786099</v>
       </c>
       <c r="F94">
-        <v>0.3470340099394509</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.3162056956413813</v>
+      </c>
+      <c r="G94">
+        <v>0.05050297695862487</v>
+      </c>
+      <c r="H94">
+        <v>-0.2169842619474946</v>
+      </c>
+      <c r="I94">
+        <v>-0.00917346271553751</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.1636158934772011</v>
+        <v>0.1312048958084197</v>
       </c>
       <c r="C95">
-        <v>-0.03555629077188516</v>
+        <v>-0.05442591410771994</v>
       </c>
       <c r="D95">
-        <v>0.03861375282521929</v>
+        <v>-0.08334157657438755</v>
       </c>
       <c r="E95">
-        <v>0.0505337846746387</v>
+        <v>-0.03064159994745685</v>
       </c>
       <c r="F95">
-        <v>0.3641264003575547</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.1056537843179291</v>
+      </c>
+      <c r="G95">
+        <v>0.1009306209741769</v>
+      </c>
+      <c r="H95">
+        <v>0.8762048189306806</v>
+      </c>
+      <c r="I95">
+        <v>0.3406477446586799</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.2130544030378873</v>
+        <v>0.2115160477550612</v>
       </c>
       <c r="C98">
-        <v>0.0943558187166221</v>
+        <v>0.0634382650567748</v>
       </c>
       <c r="D98">
-        <v>-0.04211026445529167</v>
+        <v>-0.06618307514850663</v>
       </c>
       <c r="E98">
-        <v>0.09779743412461031</v>
+        <v>0.03277785871469812</v>
       </c>
       <c r="F98">
-        <v>-0.08304116412864873</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.1746174098918775</v>
+      </c>
+      <c r="G98">
+        <v>-0.3438747769707249</v>
+      </c>
+      <c r="H98">
+        <v>0.01687077332949035</v>
+      </c>
+      <c r="I98">
+        <v>0.1117864607115071</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.02856379320110073</v>
+        <v>0.01755412465116213</v>
       </c>
       <c r="C101">
-        <v>-0.01855413692537239</v>
+        <v>-0.0302863835659583</v>
       </c>
       <c r="D101">
-        <v>0.0378834073547067</v>
+        <v>0.006483815713748339</v>
       </c>
       <c r="E101">
-        <v>-0.01495279959121672</v>
+        <v>-0.03922415266126526</v>
       </c>
       <c r="F101">
-        <v>-0.02793085445345954</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.06106904271159935</v>
+      </c>
+      <c r="G101">
+        <v>0.1104979120302264</v>
+      </c>
+      <c r="H101">
+        <v>-0.02465504740506225</v>
+      </c>
+      <c r="I101">
+        <v>0.1179321624961786</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1054316240198553</v>
+        <v>0.1171359533650099</v>
       </c>
       <c r="C102">
-        <v>-0.015038064470386</v>
+        <v>-0.02448655350122342</v>
       </c>
       <c r="D102">
-        <v>0.04713599808203019</v>
+        <v>0.006253247640119579</v>
       </c>
       <c r="E102">
-        <v>-0.04527076186516586</v>
+        <v>-0.05461924095463676</v>
       </c>
       <c r="F102">
-        <v>0.09661388179107259</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.1155057639906118</v>
+      </c>
+      <c r="G102">
+        <v>-0.0005777615250942204</v>
+      </c>
+      <c r="H102">
+        <v>-0.00107803496458343</v>
+      </c>
+      <c r="I102">
+        <v>-0.05722558358356566</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>-0.01976494380477911</v>
+        <v>0.02864139056237211</v>
       </c>
       <c r="C103">
-        <v>-0.007276447234847639</v>
+        <v>-0.007422057140214784</v>
       </c>
       <c r="D103">
-        <v>0.01538411975084138</v>
+        <v>0.00923204446751971</v>
       </c>
       <c r="E103">
-        <v>-0.006881749957708646</v>
+        <v>-0.01861796214549</v>
       </c>
       <c r="F103">
-        <v>0.03649434725777545</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.02717319061496546</v>
+      </c>
+      <c r="G103">
+        <v>0.01765630885966321</v>
+      </c>
+      <c r="H103">
+        <v>0.009786124579397298</v>
+      </c>
+      <c r="I103">
+        <v>-0.01314692822862493</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
